--- a/day07/data/최종_서울_스타벅스매장_데이터.xlsx
+++ b/day07/data/최종_서울_스타벅스매장_데이터.xlsx
@@ -456,12 +456,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>매장 수</t>
+          <t>스타벅스매장수</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>성별소계</t>
+          <t>주민등록인구</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
